--- a/src/model/实验表.xlsx
+++ b/src/model/实验表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6656482A-114F-4DCF-9B13-5A839B41F2DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE543C2-7DFC-4216-803B-5AF12869AF42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22278" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>BCEloss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,78 @@
   </si>
   <si>
     <t>学习style GAN的condition设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmf:0.179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmf:0.662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision:0.638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> recall:0.844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE+Mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步添加噪声，包括整体噪声和基站噪声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移FineTune 识别一些没见过的道路结构和噪声形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE+Mask+Punish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmf:0.228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmf:0.561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision:0.698</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> recall:0.799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmf:0.2338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmf:0.5510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall:0.7918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision:0.7067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE+Mask+Punish+GAN_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果想保证序列性，本方法可以适配HMM 与 Seq2seq模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +140,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -94,8 +181,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -376,20 +465,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C8"/>
+  <dimension ref="A3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -400,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -411,22 +504,105 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
